--- a/estacion-app/static/archivo.xlsx
+++ b/estacion-app/static/archivo.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\estacion-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F879ED-BDD2-4D54-AA88-D032EEDBE26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA301CCB-768B-4C99-A657-60AEAA69859F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JEANS THIS WEEK" sheetId="1" r:id="rId1"/>
-    <sheet name="CHINO THIS WEEK" sheetId="2" r:id="rId2"/>
-    <sheet name="BUZOS CUELLO REDONDO THIS WEEK" sheetId="3" r:id="rId3"/>
-    <sheet name="BUZOS CAPUCHA THIS WEEK" sheetId="4" r:id="rId4"/>
-    <sheet name="CAMISAS M LARGAS THIS WEEK" sheetId="10" r:id="rId5"/>
-    <sheet name="SACOS THIS WEEK" sheetId="13" r:id="rId6"/>
-    <sheet name="BERMUDAS THIS WEEK" sheetId="14" r:id="rId7"/>
+    <sheet name="CAMISAS M LARGAS FIUME" sheetId="2" r:id="rId1"/>
+    <sheet name="CAMPERAS ALGODON FIUME" sheetId="3" r:id="rId2"/>
+    <sheet name="BABUCHAS FIUME" sheetId="6" r:id="rId3"/>
+    <sheet name="CHINO FIUME" sheetId="7" r:id="rId4"/>
+    <sheet name="SWEATER FIUME" sheetId="8" r:id="rId5"/>
+    <sheet name="BUZOS CUELLO REDONDO FIUME" sheetId="9" r:id="rId6"/>
+    <sheet name="BUZOS CAPUCHA FIUME" sheetId="10" r:id="rId7"/>
+    <sheet name="REMERAS M LARGAS FIUME" sheetId="13" r:id="rId8"/>
+    <sheet name="REMERAS M CORTAS FIUME" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
   <si>
     <t>MARCA</t>
   </si>
@@ -48,40 +50,55 @@
     <t>PRECIO</t>
   </si>
   <si>
-    <t>THIS WEEK</t>
-  </si>
-  <si>
-    <t>JEANS</t>
+    <t>FIUME</t>
+  </si>
+  <si>
+    <t>JOGGER</t>
+  </si>
+  <si>
+    <t>CAMISA M/LARGAS</t>
+  </si>
+  <si>
+    <t>LISA</t>
+  </si>
+  <si>
+    <t>FANTASIA</t>
+  </si>
+  <si>
+    <t>CAMPERA ALGODÓN</t>
+  </si>
+  <si>
+    <t>BABUCHA</t>
+  </si>
+  <si>
+    <t>JOGGER GABARDINA</t>
   </si>
   <si>
     <t>CHINO</t>
   </si>
   <si>
-    <t>GRIS-AZUL-BEIGE</t>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>SWEATER</t>
+  </si>
+  <si>
+    <t>CAMPERA HILO</t>
   </si>
   <si>
     <t>BUZO CUELLO REDONDO</t>
   </si>
   <si>
-    <t>CLASIC</t>
-  </si>
-  <si>
     <t>BUZO CAPUCHA</t>
   </si>
   <si>
-    <t>CAMISA M/LARGAS</t>
-  </si>
-  <si>
-    <t>LISO</t>
-  </si>
-  <si>
-    <t>SACO DE VESTIR</t>
-  </si>
-  <si>
-    <t>BERMUDAS</t>
-  </si>
-  <si>
-    <t>CARGO</t>
+    <t>PLUSH</t>
+  </si>
+  <si>
+    <t>REMERA M/LARGAS</t>
+  </si>
+  <si>
+    <t>REMERA M/CORTAS</t>
   </si>
 </sst>
 </file>
@@ -130,10 +147,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -414,16 +431,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,169 +466,72 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>11946</v>
+      <c r="B3" s="1">
+        <v>53000</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22990</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>11945</v>
+      <c r="B4" s="1">
+        <v>53011</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>22990</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>11975</v>
+      <c r="B5" s="1">
+        <v>53013</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>22990</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>11970</v>
+      <c r="B6" s="1">
+        <v>53009</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>22990</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24900</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>11971</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>11979</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>11969</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11989</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>11986</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11976</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>11430</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>11793</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>22990</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -618,164 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>11850</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>28500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>81245</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>18900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>81261</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>18900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -784,7 +548,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -809,17 +574,14 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>21707</v>
+      <c r="B3" s="1">
+        <v>57025</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>23900</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25900</v>
       </c>
     </row>
   </sheetData>
@@ -827,9 +589,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:E3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E3"/>
@@ -837,7 +599,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,14 +624,34 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>51421</v>
+      <c r="B3" s="1">
+        <v>54004</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43000</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>54002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>29900</v>
       </c>
     </row>
   </sheetData>
@@ -877,12 +659,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A2:E5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,51 +693,527 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>11917</v>
+      <c r="B3" s="1">
+        <v>57025</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>54000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>29900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>55500</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12900</v>
+      <c r="E3" s="2">
+        <v>22000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>11821</v>
+      <c r="B4" s="1">
+        <v>57026</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12900</v>
+      <c r="E4" s="2">
+        <v>18500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>11824</v>
+      <c r="B5" s="1">
+        <v>55503</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="2">
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>55509</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>55507</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>57009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>57008</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>57012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>57005</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>56500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>51038</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>51032</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>51005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12900</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>51035</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>51042</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>51030</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>51037</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>51036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>51033</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>51001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>51041</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11900</v>
       </c>
     </row>
   </sheetData>
